--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_10_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1176608.946474489</v>
+        <v>1174048.762314624</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673443</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>396.9767828392119</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>115.941812385422</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>26.30660220273212</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -868,7 +868,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.22331801800679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>234.1055905923163</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>26.61297117991753</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -947,7 +947,7 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>18.86073670749132</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>113.5955894136364</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>14.4137017861247</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>63.2732046611187</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
-        <v>171.1971464172151</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>307.5357984573071</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>289.5687166806773</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238038</v>
+        <v>22.60777203238027</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114108</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.7640893793779</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>250.9558092037176</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>208.0347351867641</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458124</v>
       </c>
       <c r="I12" t="n">
-        <v>9.75316679403528</v>
+        <v>9.753166794035238</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>129.164299805764</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.71507747034042</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>218.6059168754546</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1997994941144</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>138.5216201674048</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.981365633718</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1658,7 +1658,7 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>148.9055307001846</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1774,16 +1774,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>149.7204818231099</v>
+        <v>152.6418634144261</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1859,7 +1859,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444146</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>4.019807611472697</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>30.97191586387613</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,10 +2242,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8253826161911274</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146489</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>155.2435806730863</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.74133133758817</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>168.8664936943856</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2761,22 +2761,22 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>113.9549918517058</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>35.41770597126668</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505388</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819395</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716393</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>181.645991461631</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569543</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>9.146142788179199</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>78.91051008678029</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695462</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3679,7 +3679,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>42.53134576113405</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520971</v>
       </c>
     </row>
     <row r="41">
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3904,16 +3904,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>26.05480806223605</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>170.9457618790575</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -4147,7 +4147,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>41.74133133758744</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624818</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.021456295685</v>
+        <v>1198.574246756697</v>
       </c>
       <c r="C2" t="n">
-        <v>926.0589393552734</v>
+        <v>829.6117298162851</v>
       </c>
       <c r="D2" t="n">
-        <v>926.0589393552734</v>
+        <v>829.6117298162851</v>
       </c>
       <c r="E2" t="n">
-        <v>540.2706867570292</v>
+        <v>829.6117298162851</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>822.6662290670816</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2445.226386596698</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>2445.226386596698</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.760628335619</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.621296359807</v>
+        <v>1585.174086820819</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049859</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M3" t="n">
         <v>1218.104987164206</v>
@@ -4425,7 +4425,7 @@
         <v>1937.460550937313</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4480,22 +4480,22 @@
         <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386097</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4516,22 +4516,22 @@
         <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y4" t="n">
-        <v>1269.331624317611</v>
+        <v>1114.255484944676</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1287.435190625612</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="C5" t="n">
-        <v>918.4726736852001</v>
+        <v>1992.424186004858</v>
       </c>
       <c r="D5" t="n">
-        <v>560.2069750784497</v>
+        <v>1634.158487398107</v>
       </c>
       <c r="E5" t="n">
-        <v>560.2069750784497</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>2437.640120926625</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="X5" t="n">
-        <v>2064.174362665545</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="Y5" t="n">
-        <v>1674.035030689734</v>
+        <v>2228.89447953245</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>134.5663890134814</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>319.2880102945313</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>613.991567326003</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>420.5838509848373</v>
+        <v>239.2342186953962</v>
       </c>
       <c r="C7" t="n">
-        <v>420.5838509848373</v>
+        <v>70.2980357674893</v>
       </c>
       <c r="D7" t="n">
-        <v>420.5838509848373</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>420.5838509848373</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>420.5838509848373</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4756,19 +4756,19 @@
         <v>1413.467639269232</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.467639269232</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.783151063345</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="W7" t="n">
-        <v>869.3659810263848</v>
+        <v>869.6648135671834</v>
       </c>
       <c r="X7" t="n">
-        <v>641.3764301283675</v>
+        <v>641.675262669166</v>
       </c>
       <c r="Y7" t="n">
-        <v>420.5838509848373</v>
+        <v>420.8826835256359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1660.900948886692</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="C8" t="n">
-        <v>1291.93843194628</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="D8" t="n">
-        <v>933.6727333395295</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
-        <v>547.8844807412852</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872916</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2498.427000459631</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2289.681359065456</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2289.681359065456</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926625</v>
+        <v>1958.618471721885</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.640120926625</v>
+        <v>1605.849816451771</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.640120926625</v>
+        <v>1232.384058190691</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.500788950813</v>
+        <v>842.2447262148796</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>551.6025748766949</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>846.3061319081667</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1480.485115687205</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1867.77024428415</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>833.0891146802707</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>664.1529317523638</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>514.036292340028</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>366.1231987576349</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>219.2332512597245</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
         <v>76.71595955312198</v>
@@ -4975,10 +4975,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4996,16 +4996,16 @@
         <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1463.519709552058</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>1235.53015865404</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>1014.73757951051</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5024,67 +5024,67 @@
         <v>1605.190455861743</v>
       </c>
       <c r="E11" t="n">
-        <v>1219.402203263498</v>
+        <v>1219.402203263499</v>
       </c>
       <c r="F11" t="n">
-        <v>808.4162984738909</v>
+        <v>808.4162984738914</v>
       </c>
       <c r="G11" t="n">
         <v>393.8408528035379</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907326</v>
+        <v>101.3471995907325</v>
       </c>
       <c r="I11" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386834</v>
+        <v>308.7333971386831</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420314</v>
+        <v>704.5155104420319</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301225</v>
       </c>
       <c r="M11" t="n">
         <v>1851.484858878109</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765423</v>
+        <v>2485.180661765425</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.226377687099</v>
+        <v>3070.2263776871</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.04835985628</v>
+        <v>3535.048359856282</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.937563882238</v>
+        <v>3835.93756388224</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.553311234588</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455658</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971438</v>
+        <v>3925.553311234591</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604046</v>
+        <v>3672.062594867199</v>
       </c>
       <c r="V11" t="n">
-        <v>3369.295305604046</v>
+        <v>3461.926498718953</v>
       </c>
       <c r="W11" t="n">
-        <v>3016.526650333931</v>
+        <v>3109.157843448838</v>
       </c>
       <c r="X11" t="n">
-        <v>2643.060892072851</v>
+        <v>3109.157843448838</v>
       </c>
       <c r="Y11" t="n">
-        <v>2643.060892072851</v>
+        <v>2719.018511473027</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5115,19 +5115,19 @@
         <v>88.36274985503044</v>
       </c>
       <c r="I12" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792126</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376498</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649591</v>
+        <v>480.1171086843894</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282799</v>
+        <v>993.4308829282788</v>
       </c>
       <c r="N12" t="n">
         <v>1534.739190279346</v>
@@ -5173,34 +5173,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>780.3333280164268</v>
+        <v>692.2860838767583</v>
       </c>
       <c r="C13" t="n">
-        <v>611.3971450885199</v>
+        <v>523.3499009488514</v>
       </c>
       <c r="D13" t="n">
-        <v>461.2805056761841</v>
+        <v>523.3499009488514</v>
       </c>
       <c r="E13" t="n">
-        <v>313.367412093791</v>
+        <v>392.8809112460594</v>
       </c>
       <c r="F13" t="n">
-        <v>313.367412093791</v>
+        <v>245.9909637481491</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="I13" t="n">
-        <v>78.51106622469177</v>
+        <v>78.51106622469182</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600401</v>
+        <v>139.08183346004</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457704</v>
       </c>
       <c r="L13" t="n">
         <v>717.5002252888917</v>
@@ -5212,37 +5212,37 @@
         <v>1470.753784542993</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.967734715849</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082521</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.09498610115</v>
+        <v>2155.909043551105</v>
       </c>
       <c r="U13" t="n">
-        <v>1646.004279541438</v>
+        <v>1866.818336991393</v>
       </c>
       <c r="V13" t="n">
-        <v>1391.319791335551</v>
+        <v>1612.133848785506</v>
       </c>
       <c r="W13" t="n">
-        <v>1101.90262129859</v>
+        <v>1322.716678748546</v>
       </c>
       <c r="X13" t="n">
-        <v>1101.90262129859</v>
+        <v>1094.727127850528</v>
       </c>
       <c r="Y13" t="n">
-        <v>961.9817928466665</v>
+        <v>873.934548706998</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2266.424947555046</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,13 +5261,13 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
         <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
         <v>92.81162322608056</v>
@@ -5276,13 +5276,13 @@
         <v>92.81162322608057</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128767</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.457663018652</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
         <v>2182.462224957689</v>
@@ -5291,13 +5291,13 @@
         <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
         <v>4640.581161304028</v>
@@ -5306,22 +5306,22 @@
         <v>4555.113898070877</v>
       </c>
       <c r="T14" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750195</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469745</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.398533126174</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856059</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.16411959498</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619168</v>
       </c>
     </row>
     <row r="15">
@@ -5364,16 +5364,16 @@
         <v>1061.700680385037</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.700680385037</v>
+        <v>1653.719034637164</v>
       </c>
       <c r="N15" t="n">
-        <v>1355.754362358723</v>
+        <v>2005.899154770046</v>
       </c>
       <c r="O15" t="n">
-        <v>1902.630837358917</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="P15" t="n">
-        <v>2322.214355784993</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.5402036081957</v>
+        <v>951.49533653612</v>
       </c>
       <c r="C16" t="n">
-        <v>679.6040206802888</v>
+        <v>782.5591536082131</v>
       </c>
       <c r="D16" t="n">
-        <v>529.4873812679532</v>
+        <v>632.4425141958775</v>
       </c>
       <c r="E16" t="n">
-        <v>381.5742876855603</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="F16" t="n">
-        <v>234.6843401876499</v>
+        <v>484.5294206134844</v>
       </c>
       <c r="G16" t="n">
-        <v>234.6843401876499</v>
+        <v>317.3152257880632</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>175.4425088264937</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608056</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156346</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861984</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.1842911693326</v>
       </c>
       <c r="M16" t="n">
         <v>1238.413883213792</v>
@@ -5461,25 +5461,25 @@
         <v>2428.375774410168</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2245.205584149098</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439277</v>
+        <v>2025.52680186348</v>
       </c>
       <c r="V16" t="n">
-        <v>1768.387968516944</v>
+        <v>1871.343101444868</v>
       </c>
       <c r="W16" t="n">
-        <v>1478.970798479983</v>
+        <v>1581.925931407907</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.981247581966</v>
+        <v>1353.93638050989</v>
       </c>
       <c r="Y16" t="n">
-        <v>1030.188668438435</v>
+        <v>1133.14380136636</v>
       </c>
     </row>
     <row r="17">
@@ -5492,49 +5492,49 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398594</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,22 +5589,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876695</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597626</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>434.0093569897585</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>266.8132577046385</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>125.1014265468366</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5692,10 +5692,10 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
         <v>2264.108249235165</v>
@@ -5710,13 +5710,13 @@
         <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359457</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614394</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179092</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5741,31 +5741,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876695</v>
+        <v>571.6607764188009</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597626</v>
+        <v>402.724593490894</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474267</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,49 +5911,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359457</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614394</v>
+        <v>974.1018203925707</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179092</v>
+        <v>753.3092412490406</v>
       </c>
     </row>
     <row r="23">
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="C25" t="n">
-        <v>847.6442739835331</v>
+        <v>580.8993044876695</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>430.7826650753336</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>282.8695714929406</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>135.9796239950304</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>135.9796239950304</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>135.9796239950304</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X25" t="n">
-        <v>1394.184733704552</v>
+        <v>983.3403484614394</v>
       </c>
       <c r="Y25" t="n">
-        <v>1173.392154561022</v>
+        <v>762.5477693179092</v>
       </c>
     </row>
     <row r="26">
@@ -6215,37 +6215,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2160.315914855604</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1905.631426649717</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W28" t="n">
-        <v>1616.214256612757</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>950.1865537761984</v>
       </c>
     </row>
     <row r="29">
@@ -6458,25 +6458,25 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6552,16 +6552,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>763.7541388327647</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>594.8179559048579</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>444.701316492522</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E31" t="n">
-        <v>296.788222910129</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>198.0274703142537</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,10 +6622,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806535</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y31" t="n">
-        <v>945.4026036630045</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6674,43 +6674,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,10 +6771,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
         <v>243.4633055756266</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.6905094135295</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C34" t="n">
-        <v>700.7543264856226</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D34" t="n">
-        <v>550.6376870732869</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270444</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.121104285319</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.131553387302</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.338974243772</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="35">
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876686</v>
+        <v>653.7474797708867</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597617</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="D37" t="n">
-        <v>411.9631215597617</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="E37" t="n">
-        <v>411.9631215597617</v>
+        <v>484.8112968429798</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429799</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602303</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396416</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614385</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179083</v>
+        <v>835.3959446011264</v>
       </c>
     </row>
     <row r="38">
@@ -7163,31 +7163,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7245,10 +7245,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7336,7 +7336,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7348,34 +7348,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518386</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541327</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885524</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679637</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642676</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1056.188523744659</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7397,28 +7397,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355938</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.899304487669</v>
+        <v>560.7825789706073</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597622</v>
+        <v>391.8463960427005</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474263</v>
+        <v>241.7297566303648</v>
       </c>
       <c r="E43" t="n">
-        <v>261.8464821474263</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="F43" t="n">
-        <v>261.8464821474263</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2024.390058741044</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614389</v>
+        <v>963.2236229443772</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179088</v>
+        <v>742.4310438008471</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.899304487669</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C46" t="n">
-        <v>580.899304487669</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D46" t="n">
-        <v>430.7826650753332</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E46" t="n">
-        <v>282.8695714929402</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F46" t="n">
-        <v>135.9796239950299</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7807,7 +7807,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
         <v>826.1405381797745</v>
@@ -7825,31 +7825,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614389</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179088</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
   </sheetData>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>30.36925650589387</v>
+        <v>30.36925650589512</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.1809937004748</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,13 +8532,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>129.7511347056857</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.19804320617351</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>97.97552699114102</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.7640893793779</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>119.7175232833708</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>17.26966284080513</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034039</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146345</v>
+        <v>79.00824149146339</v>
       </c>
       <c r="S13" t="n">
         <v>185.9226570076762</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>218.6059168754546</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>80.06303318468997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613728951</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>50.2915261372895</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>102.4171615007181</v>
+        <v>99.49577990940188</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-8.722622624190989e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>144.5956654067397</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>50.29392045468938</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,10 +24130,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>145.6085800303781</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>57.22910392194208</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24361,10 +24361,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.58839950885101</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>39.52450498097736</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>10.96548648755174</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24649,22 +24649,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>110.0033420516646</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>143.621275417215</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25078,10 +25078,10 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.4949402405075</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>104.87700687496</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25202,7 +25202,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.848122317634988e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>136.2749052347521</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>138.494940240508</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>136.2749052347518</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>138.4949402405105</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25685,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-13</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25792,16 +25792,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>139.4693302300328</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>46.45968844823074</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26035,7 +26035,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>123.7828069546814</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26074,7 +26074,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>125.5054897610401</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>872140.3246336095</v>
+        <v>872140.3246336099</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858809</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>954496.6942858808</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>954496.6942858805</v>
+        <v>954496.6942858807</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>954496.6942858807</v>
+        <v>954496.6942858805</v>
       </c>
     </row>
   </sheetData>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.017671963</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="C2" t="n">
-        <v>472099.0176719632</v>
+        <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
         <v>472099.017671963</v>
       </c>
       <c r="E2" t="n">
-        <v>423807.2415876633</v>
+        <v>423807.2415876632</v>
       </c>
       <c r="F2" t="n">
-        <v>461540.8686918679</v>
+        <v>461540.8686918678</v>
       </c>
       <c r="G2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
@@ -26338,13 +26338,13 @@
         <v>464109.2948217537</v>
       </c>
       <c r="K2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="M2" t="n">
-        <v>464109.2948217536</v>
+        <v>464109.2948217537</v>
       </c>
       <c r="N2" t="n">
         <v>464109.2948217536</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325187.1190357057</v>
+        <v>325187.1190357064</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051389</v>
+        <v>166521.3471051382</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557898</v>
+        <v>11167.23623557916</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,19 +26390,19 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>84929.59434456803</v>
+        <v>84929.59434456815</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848945</v>
+        <v>43782.4065584892</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224638</v>
+        <v>3023.297977224693</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26430,28 +26430,28 @@
         <v>6890.891875482008</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="H4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6897.424496707369</v>
+      </c>
+      <c r="M4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="N4" t="n">
         <v>6897.42449670736</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
         <v>6897.424496707359</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214705</v>
+        <v>86093.7221621471</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26522,46 +26522,46 @@
         <v>-867500.2651754264</v>
       </c>
       <c r="C6" t="n">
-        <v>247251.5184004937</v>
+        <v>247251.5184004934</v>
       </c>
       <c r="D6" t="n">
-        <v>247251.5184004933</v>
+        <v>247251.5184004934</v>
       </c>
       <c r="E6" t="n">
-        <v>5728.096850409245</v>
+        <v>5518.132606563606</v>
       </c>
       <c r="F6" t="n">
-        <v>187986.5011974086</v>
+        <v>187940.5962018435</v>
       </c>
       <c r="G6" t="n">
-        <v>344922.1042655602</v>
+        <v>344887.3663401243</v>
       </c>
       <c r="H6" t="n">
-        <v>356089.3405011391</v>
+        <v>356054.6025757039</v>
       </c>
       <c r="I6" t="n">
-        <v>356089.3405011394</v>
+        <v>356054.6025757036</v>
       </c>
       <c r="J6" t="n">
-        <v>188484.1626911567</v>
+        <v>188449.424765721</v>
       </c>
       <c r="K6" t="n">
-        <v>356089.3405011389</v>
+        <v>356054.6025757036</v>
       </c>
       <c r="L6" t="n">
-        <v>356089.3405011394</v>
+        <v>356054.6025757035</v>
       </c>
       <c r="M6" t="n">
-        <v>271159.7461565712</v>
+        <v>271125.0082311354</v>
       </c>
       <c r="N6" t="n">
-        <v>312306.9339426497</v>
+        <v>312272.1960172143</v>
       </c>
       <c r="O6" t="n">
-        <v>353066.0425239147</v>
+        <v>353031.3045984788</v>
       </c>
       <c r="P6" t="n">
-        <v>356089.3405011392</v>
+        <v>356054.6025757035</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494555</v>
+        <v>1212.170267494556</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086471</v>
+        <v>981.3883278086477</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.105375377016</v>
+        <v>278.1053753770168</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218306</v>
+        <v>145.8707812218299</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>340.8034957086084</v>
+        <v>340.8034957086088</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173599</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="G4" t="n">
         <v>12.56299777364165</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086084</v>
+        <v>340.8034957086088</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173601</v>
+        <v>178.7569625173591</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364188</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>340.8034957086084</v>
+        <v>340.8034957086088</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173599</v>
+        <v>178.7569625173593</v>
       </c>
       <c r="O4" t="n">
         <v>12.56299777364165</v>
@@ -27385,16 +27385,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>14.57091993374212</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>211.8104460847129</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>153.5253779792052</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27588,7 +27588,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>151.361335334088</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>131.1673011786912</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>380.2630745617939</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
@@ -27679,10 +27679,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>129.754736310721</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>52.71101063116775</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>392.4623439555867</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>60.17901073767568</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,10 +28023,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28068,10 +28068,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
-        <v>115.3258519193759</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>6.786932824787932e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>-2.250999386887997e-12</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30447,7 +30447,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-2.262368070660159e-12</v>
       </c>
     </row>
     <row r="41">
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485646</v>
+        <v>4.873046301485648</v>
       </c>
       <c r="H11" t="n">
-        <v>49.90608543508988</v>
+        <v>49.90608543508991</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380255</v>
+        <v>187.8681175380256</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307177</v>
+        <v>413.5937135307179</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726052</v>
+        <v>619.8697634726055</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216967</v>
+        <v>769.003254221697</v>
       </c>
       <c r="M11" t="n">
-        <v>855.664291385742</v>
+        <v>855.6642913857424</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898381</v>
+        <v>869.5098341898387</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294402</v>
+        <v>821.0534800294406</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615132</v>
+        <v>700.7501494615136</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895583</v>
+        <v>526.2341787895587</v>
       </c>
       <c r="R11" t="n">
-        <v>306.1064947356979</v>
+        <v>306.1064947356981</v>
       </c>
       <c r="S11" t="n">
         <v>111.0445425951043</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475342</v>
+        <v>21.33176018475343</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188516</v>
+        <v>0.3898437041188518</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969421</v>
+        <v>2.607309631969422</v>
       </c>
       <c r="H12" t="n">
-        <v>25.1811219719152</v>
+        <v>25.18112197191521</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596472</v>
+        <v>89.76921320596476</v>
       </c>
       <c r="J12" t="n">
-        <v>246.333582378304</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202551</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256411</v>
+        <v>544.2170489310839</v>
       </c>
       <c r="M12" t="n">
-        <v>236.0541786324434</v>
+        <v>660.6327957845328</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147136</v>
+        <v>678.1177801147139</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431805</v>
+        <v>620.3452877431808</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205467</v>
+        <v>497.881784020547</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071844</v>
+        <v>332.8207874071845</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697583</v>
+        <v>48.42963285697586</v>
       </c>
       <c r="T12" t="n">
         <v>10.50928750780657</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1715335284190409</v>
+        <v>0.171533528419041</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236083</v>
+        <v>2.185880810236084</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737173</v>
+        <v>19.43446756737174</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691787</v>
+        <v>65.73539745691789</v>
       </c>
       <c r="J13" t="n">
-        <v>154.541773283691</v>
+        <v>154.5417732836911</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619741</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509173</v>
+        <v>324.9808615509175</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263707</v>
+        <v>342.6467528263709</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973092</v>
+        <v>334.4993788973094</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050057</v>
+        <v>308.9643167050059</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761894</v>
+        <v>264.3723481761896</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916778</v>
+        <v>183.0377103916779</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570603</v>
+        <v>98.28514988570609</v>
       </c>
       <c r="S13" t="n">
-        <v>38.09394102929609</v>
+        <v>38.09394102929611</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826897</v>
+        <v>9.339672552826903</v>
       </c>
       <c r="U13" t="n">
         <v>0.1192298623765138</v>
@@ -32084,19 +32084,19 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>428.3656332688745</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O15" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,25 +32309,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565758</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,16 +32552,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>400.5469039565762</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,13 +32786,13 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,13 +33023,13 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>333.9544784328822</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
@@ -34784,22 +34784,22 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>280.0487856294262</v>
+        <v>280.0487856294274</v>
       </c>
       <c r="Q3" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>84.16121459139219</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35033,10 +35033,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>316.3386309491705</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
@@ -35267,10 +35267,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040314</v>
+        <v>232.5478090040316</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276247</v>
+        <v>399.779912427625</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517094</v>
+        <v>533.2368392517099</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584693</v>
+        <v>625.3180581584697</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932471</v>
+        <v>640.0967705932478</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077534</v>
+        <v>590.9552686077539</v>
       </c>
       <c r="P11" t="n">
-        <v>469.5171537062436</v>
+        <v>469.5171537062441</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.9284889151088</v>
+        <v>303.9284889151091</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156581</v>
+        <v>90.52095692156598</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116373</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458961</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457669</v>
+        <v>405.6626691512097</v>
       </c>
       <c r="M12" t="n">
-        <v>93.92014471042505</v>
+        <v>518.4987618625146</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313803</v>
+        <v>546.7760680313806</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987361</v>
+        <v>477.7490432987364</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062165</v>
+        <v>363.9073766062168</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.8390133211628</v>
+        <v>192.839013321163</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701827</v>
+        <v>61.18259316701835</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360911</v>
+        <v>231.6901150360912</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112334</v>
+        <v>352.5708868112337</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882113</v>
+        <v>382.2306297882114</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765377</v>
+        <v>378.6315512765379</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190454</v>
+        <v>333.5494446190456</v>
       </c>
       <c r="P13" t="n">
-        <v>261.6509074410829</v>
+        <v>261.6509074410831</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998343</v>
+        <v>96.87566713998355</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,19 +35732,19 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>297.0239211855412</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O15" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36051,7 +36051,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,13 +36203,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>257.9506595121318</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,13 +36671,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>191.3582339884378</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
